--- a/SchedulingData/dynamic9/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>235.94</v>
+        <v>248.94</v>
       </c>
       <c r="D2" t="n">
-        <v>280.68</v>
+        <v>317.7</v>
       </c>
       <c r="E2" t="n">
-        <v>12.572</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>271.92</v>
       </c>
       <c r="D3" t="n">
-        <v>302.38</v>
+        <v>312.52</v>
       </c>
       <c r="E3" t="n">
-        <v>14.852</v>
+        <v>9.048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>280.68</v>
+        <v>256.5</v>
       </c>
       <c r="D4" t="n">
-        <v>319.02</v>
+        <v>307.56</v>
       </c>
       <c r="E4" t="n">
-        <v>9.868</v>
+        <v>11.864</v>
       </c>
     </row>
     <row r="5">
@@ -523,231 +523,231 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.4</v>
+        <v>208.38</v>
       </c>
       <c r="D5" t="n">
-        <v>294.3</v>
+        <v>280.62</v>
       </c>
       <c r="E5" t="n">
-        <v>14.02</v>
+        <v>15.948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>242.18</v>
+        <v>262.24</v>
       </c>
       <c r="D6" t="n">
-        <v>311.78</v>
+        <v>295.94</v>
       </c>
       <c r="E6" t="n">
-        <v>11.452</v>
+        <v>13.036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>311.78</v>
+        <v>317.7</v>
       </c>
       <c r="D7" t="n">
-        <v>372.2</v>
+        <v>356.28</v>
       </c>
       <c r="E7" t="n">
-        <v>8.539999999999999</v>
+        <v>7.192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>372.2</v>
+        <v>356.28</v>
       </c>
       <c r="D8" t="n">
-        <v>444.22</v>
+        <v>395.66</v>
       </c>
       <c r="E8" t="n">
-        <v>5.948</v>
+        <v>4.384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>218.52</v>
+        <v>243.36</v>
       </c>
       <c r="D9" t="n">
-        <v>282.9</v>
+        <v>326.86</v>
       </c>
       <c r="E9" t="n">
-        <v>13.2</v>
+        <v>10.404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302.38</v>
+        <v>280.62</v>
       </c>
       <c r="D10" t="n">
-        <v>336.34</v>
+        <v>324.28</v>
       </c>
       <c r="E10" t="n">
-        <v>12.096</v>
+        <v>13.212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>319.02</v>
+        <v>295.94</v>
       </c>
       <c r="D11" t="n">
-        <v>361.82</v>
+        <v>340.94</v>
       </c>
       <c r="E11" t="n">
-        <v>7.708</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>228.14</v>
+        <v>340.94</v>
       </c>
       <c r="D12" t="n">
-        <v>282.84</v>
+        <v>413.78</v>
       </c>
       <c r="E12" t="n">
-        <v>11.916</v>
+        <v>7.472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>282.84</v>
+        <v>307.56</v>
       </c>
       <c r="D13" t="n">
-        <v>349.1</v>
+        <v>358.44</v>
       </c>
       <c r="E13" t="n">
-        <v>8.380000000000001</v>
+        <v>8.896000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>336.34</v>
+        <v>324.28</v>
       </c>
       <c r="D14" t="n">
-        <v>415.06</v>
+        <v>362.18</v>
       </c>
       <c r="E14" t="n">
-        <v>8.343999999999999</v>
+        <v>11.052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>282.9</v>
+        <v>312.52</v>
       </c>
       <c r="D15" t="n">
-        <v>347.3</v>
+        <v>369.34</v>
       </c>
       <c r="E15" t="n">
-        <v>8.880000000000001</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>294.3</v>
+        <v>358.44</v>
       </c>
       <c r="D16" t="n">
-        <v>342.68</v>
+        <v>418.76</v>
       </c>
       <c r="E16" t="n">
-        <v>11.292</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,51 +755,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>349.1</v>
+        <v>369.34</v>
       </c>
       <c r="D17" t="n">
-        <v>435.4</v>
+        <v>430.84</v>
       </c>
       <c r="E17" t="n">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>pond47</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>342.68</v>
-      </c>
-      <c r="D18" t="n">
-        <v>406.18</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.052</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>pond28</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>347.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>388.28</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.912</v>
+        <v>3.396</v>
       </c>
     </row>
   </sheetData>
